--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.4307445</v>
+        <v>6.9186015</v>
       </c>
       <c r="H2">
-        <v>4.861489</v>
+        <v>13.837203</v>
       </c>
       <c r="I2">
-        <v>0.03902109471588514</v>
+        <v>0.1083832460262364</v>
       </c>
       <c r="J2">
-        <v>0.03227954420768778</v>
+        <v>0.09211467418355404</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N2">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O2">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P2">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q2">
-        <v>9.335947568476499</v>
+        <v>57.125315144358</v>
       </c>
       <c r="R2">
-        <v>37.343790273906</v>
+        <v>228.501260577432</v>
       </c>
       <c r="S2">
-        <v>0.0009897191773699219</v>
+        <v>0.007222447825161566</v>
       </c>
       <c r="T2">
-        <v>0.0005612997142755491</v>
+        <v>0.004334815695126407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.4307445</v>
+        <v>6.9186015</v>
       </c>
       <c r="H3">
-        <v>4.861489</v>
+        <v>13.837203</v>
       </c>
       <c r="I3">
-        <v>0.03902109471588514</v>
+        <v>0.1083832460262364</v>
       </c>
       <c r="J3">
-        <v>0.03227954420768778</v>
+        <v>0.09211467418355404</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P3">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q3">
-        <v>50.243887457098</v>
+        <v>143.008627655646</v>
       </c>
       <c r="R3">
-        <v>301.463324742588</v>
+        <v>858.051765933876</v>
       </c>
       <c r="S3">
-        <v>0.005326437257404264</v>
+        <v>0.0180808166953784</v>
       </c>
       <c r="T3">
-        <v>0.004531175780536884</v>
+        <v>0.01627779318504317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.4307445</v>
+        <v>6.9186015</v>
       </c>
       <c r="H4">
-        <v>4.861489</v>
+        <v>13.837203</v>
       </c>
       <c r="I4">
-        <v>0.03902109471588514</v>
+        <v>0.1083832460262364</v>
       </c>
       <c r="J4">
-        <v>0.03227954420768778</v>
+        <v>0.09211467418355404</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N4">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O4">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P4">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q4">
-        <v>138.9902897477776</v>
+        <v>223.820752864266</v>
       </c>
       <c r="R4">
-        <v>833.9417384866659</v>
+        <v>1342.924517185596</v>
       </c>
       <c r="S4">
-        <v>0.01473458952319564</v>
+        <v>0.02829802698970668</v>
       </c>
       <c r="T4">
-        <v>0.01253464782502539</v>
+        <v>0.02547614074318643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.4307445</v>
+        <v>6.9186015</v>
       </c>
       <c r="H5">
-        <v>4.861489</v>
+        <v>13.837203</v>
       </c>
       <c r="I5">
-        <v>0.03902109471588514</v>
+        <v>0.1083832460262364</v>
       </c>
       <c r="J5">
-        <v>0.03227954420768778</v>
+        <v>0.09211467418355404</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N5">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O5">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P5">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q5">
-        <v>21.11932791331775</v>
+        <v>86.7962150606115</v>
       </c>
       <c r="R5">
-        <v>84.477311653271</v>
+        <v>347.184860242446</v>
       </c>
       <c r="S5">
-        <v>0.002238894734108434</v>
+        <v>0.01097378864541254</v>
       </c>
       <c r="T5">
-        <v>0.001269744997654409</v>
+        <v>0.006586319819357106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4307445</v>
+        <v>6.9186015</v>
       </c>
       <c r="H6">
-        <v>4.861489</v>
+        <v>13.837203</v>
       </c>
       <c r="I6">
-        <v>0.03902109471588514</v>
+        <v>0.1083832460262364</v>
       </c>
       <c r="J6">
-        <v>0.03227954420768778</v>
+        <v>0.09211467418355404</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N6">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O6">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P6">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q6">
-        <v>13.31327837429466</v>
+        <v>62.85492960837751</v>
       </c>
       <c r="R6">
-        <v>79.87967024576798</v>
+        <v>377.129577650265</v>
       </c>
       <c r="S6">
-        <v>0.001411362566473143</v>
+        <v>0.007946852433172887</v>
       </c>
       <c r="T6">
-        <v>0.001200639671455742</v>
+        <v>0.007154390344121463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.4307445</v>
+        <v>6.9186015</v>
       </c>
       <c r="H7">
-        <v>4.861489</v>
+        <v>13.837203</v>
       </c>
       <c r="I7">
-        <v>0.03902109471588514</v>
+        <v>0.1083832460262364</v>
       </c>
       <c r="J7">
-        <v>0.03227954420768778</v>
+        <v>0.09211467418355404</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N7">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O7">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P7">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q7">
-        <v>135.0803602459518</v>
+        <v>283.641901083099</v>
       </c>
       <c r="R7">
-        <v>810.4821614757108</v>
+        <v>1701.851406498594</v>
       </c>
       <c r="S7">
-        <v>0.01432009145733375</v>
+        <v>0.03586131343740429</v>
       </c>
       <c r="T7">
-        <v>0.0121820362187398</v>
+        <v>0.03228521439671948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>67.495836</v>
       </c>
       <c r="I8">
-        <v>0.3611734881341704</v>
+        <v>0.3524516623258087</v>
       </c>
       <c r="J8">
-        <v>0.4481620388314865</v>
+        <v>0.4493217987686238</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N8">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O8">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P8">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q8">
-        <v>86.41215150152398</v>
+        <v>185.765909600464</v>
       </c>
       <c r="R8">
-        <v>518.4729090091439</v>
+        <v>1114.595457602784</v>
       </c>
       <c r="S8">
-        <v>0.009160694495289428</v>
+        <v>0.02348669038223315</v>
       </c>
       <c r="T8">
-        <v>0.007792960852444451</v>
+        <v>0.02114459181154443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>67.495836</v>
       </c>
       <c r="I9">
-        <v>0.3611734881341704</v>
+        <v>0.3524516623258087</v>
       </c>
       <c r="J9">
-        <v>0.4481620388314865</v>
+        <v>0.4493217987686238</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P9">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q9">
         <v>465.049999812368</v>
@@ -1013,10 +1013,10 @@
         <v>4185.449998311312</v>
       </c>
       <c r="S9">
-        <v>0.04930071638408835</v>
+        <v>0.05879703860273506</v>
       </c>
       <c r="T9">
-        <v>0.06290984045634773</v>
+        <v>0.07940067506847961</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>67.495836</v>
       </c>
       <c r="I10">
-        <v>0.3611734881341704</v>
+        <v>0.3524516623258087</v>
       </c>
       <c r="J10">
-        <v>0.4481620388314865</v>
+        <v>0.4493217987686238</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N10">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O10">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P10">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q10">
-        <v>1286.473588977709</v>
+        <v>727.8430873986613</v>
       </c>
       <c r="R10">
-        <v>11578.26230079938</v>
+        <v>6550.587786587952</v>
       </c>
       <c r="S10">
-        <v>0.1363811838972149</v>
+        <v>0.09202240215843309</v>
       </c>
       <c r="T10">
-        <v>0.1740282728019483</v>
+        <v>0.1242688582016921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>67.495836</v>
       </c>
       <c r="I11">
-        <v>0.3611734881341704</v>
+        <v>0.3524516623258087</v>
       </c>
       <c r="J11">
-        <v>0.4481620388314865</v>
+        <v>0.4493217987686238</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N11">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O11">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P11">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q11">
-        <v>195.477379223734</v>
+        <v>282.252759566692</v>
       </c>
       <c r="R11">
-        <v>1172.864275342404</v>
+        <v>1693.516557400152</v>
       </c>
       <c r="S11">
-        <v>0.02072287890872481</v>
+        <v>0.03568568198401691</v>
       </c>
       <c r="T11">
-        <v>0.01762885817976805</v>
+        <v>0.03212709695527895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>67.495836</v>
       </c>
       <c r="I12">
-        <v>0.3611734881341704</v>
+        <v>0.3524516623258087</v>
       </c>
       <c r="J12">
-        <v>0.4481620388314865</v>
+        <v>0.4493217987686238</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N12">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O12">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P12">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q12">
-        <v>123.2257378721813</v>
+        <v>204.3980526333533</v>
       </c>
       <c r="R12">
-        <v>1109.031640849632</v>
+        <v>1839.58247370018</v>
       </c>
       <c r="S12">
-        <v>0.01306336341577794</v>
+        <v>0.02584238296066231</v>
       </c>
       <c r="T12">
-        <v>0.01666941514414014</v>
+        <v>0.0348980612156088</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>67.495836</v>
       </c>
       <c r="I13">
-        <v>0.3611734881341704</v>
+        <v>0.3524516623258087</v>
       </c>
       <c r="J13">
-        <v>0.4481620388314865</v>
+        <v>0.4493217987686238</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N13">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O13">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P13">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q13">
-        <v>1250.283859119662</v>
+        <v>922.3755811649252</v>
       </c>
       <c r="R13">
-        <v>11252.55473207696</v>
+        <v>8301.380230484327</v>
       </c>
       <c r="S13">
-        <v>0.1325446510330751</v>
+        <v>0.1166174662377281</v>
       </c>
       <c r="T13">
-        <v>0.1691326913968378</v>
+        <v>0.1574825155160199</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.016137</v>
+        <v>0.008723666666666666</v>
       </c>
       <c r="H14">
-        <v>0.048411</v>
+        <v>0.026171</v>
       </c>
       <c r="I14">
-        <v>0.0002590496061721989</v>
+        <v>0.0001366604667987035</v>
       </c>
       <c r="J14">
-        <v>0.0003214416436277801</v>
+        <v>0.0001742211296645567</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N14">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O14">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P14">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q14">
-        <v>0.06197861844899999</v>
+        <v>0.07202932667066667</v>
       </c>
       <c r="R14">
-        <v>0.3718717106939999</v>
+        <v>0.432175960024</v>
       </c>
       <c r="S14">
-        <v>6.570455416115691E-06</v>
+        <v>9.106786587448505E-06</v>
       </c>
       <c r="T14">
-        <v>5.589456330723695E-06</v>
+        <v>8.198655577803781E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.016137</v>
+        <v>0.008723666666666666</v>
       </c>
       <c r="H15">
-        <v>0.048411</v>
+        <v>0.026171</v>
       </c>
       <c r="I15">
-        <v>0.0002590496061721989</v>
+        <v>0.0001366604667987035</v>
       </c>
       <c r="J15">
-        <v>0.0003214416436277801</v>
+        <v>0.0001742211296645567</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P15">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q15">
-        <v>0.333554436468</v>
+        <v>0.1803196206813333</v>
       </c>
       <c r="R15">
-        <v>3.001989928212</v>
+        <v>1.622876586132</v>
       </c>
       <c r="S15">
-        <v>3.536065515019476E-05</v>
+        <v>2.279810709022375E-05</v>
       </c>
       <c r="T15">
-        <v>4.512172108413103E-05</v>
+        <v>3.078701132344194E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.016137</v>
+        <v>0.008723666666666666</v>
       </c>
       <c r="H16">
-        <v>0.048411</v>
+        <v>0.026171</v>
       </c>
       <c r="I16">
-        <v>0.0002590496061721989</v>
+        <v>0.0001366604667987035</v>
       </c>
       <c r="J16">
-        <v>0.0003214416436277801</v>
+        <v>0.0001742211296645567</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N16">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O16">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P16">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q16">
-        <v>0.9227157793259998</v>
+        <v>0.2822156531302222</v>
       </c>
       <c r="R16">
-        <v>8.304442013933999</v>
+        <v>2.539940878172</v>
       </c>
       <c r="S16">
-        <v>9.781861941302673E-05</v>
+        <v>3.568099055604486E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001248207773086197</v>
+        <v>4.818431003649596E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.016137</v>
+        <v>0.008723666666666666</v>
       </c>
       <c r="H17">
-        <v>0.048411</v>
+        <v>0.026171</v>
       </c>
       <c r="I17">
-        <v>0.0002590496061721989</v>
+        <v>0.0001366604667987035</v>
       </c>
       <c r="J17">
-        <v>0.0003214416436277801</v>
+        <v>0.0001742211296645567</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N17">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O17">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P17">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q17">
-        <v>0.1402050254715</v>
+        <v>0.1094413731036667</v>
       </c>
       <c r="R17">
-        <v>0.8412301528289999</v>
+        <v>0.6566482386220001</v>
       </c>
       <c r="S17">
-        <v>1.486336565785001E-05</v>
+        <v>1.383685333127375E-05</v>
       </c>
       <c r="T17">
-        <v>1.26441970929992E-05</v>
+        <v>1.245703889668995E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.016137</v>
+        <v>0.008723666666666666</v>
       </c>
       <c r="H18">
-        <v>0.048411</v>
+        <v>0.026171</v>
       </c>
       <c r="I18">
-        <v>0.0002590496061721989</v>
+        <v>0.0001366604667987035</v>
       </c>
       <c r="J18">
-        <v>0.0003214416436277801</v>
+        <v>0.0001742211296645567</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N18">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O18">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P18">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q18">
-        <v>0.08838295144799999</v>
+        <v>0.07925379923388889</v>
       </c>
       <c r="R18">
-        <v>0.7954465630319999</v>
+        <v>0.713284193105</v>
       </c>
       <c r="S18">
-        <v>9.369622243381442E-06</v>
+        <v>1.002018857079559E-05</v>
       </c>
       <c r="T18">
-        <v>1.195604209632974E-05</v>
+        <v>1.35314593343758E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.016137</v>
+        <v>0.008723666666666666</v>
       </c>
       <c r="H19">
-        <v>0.048411</v>
+        <v>0.026171</v>
       </c>
       <c r="I19">
-        <v>0.0002590496061721989</v>
+        <v>0.0001366604667987035</v>
       </c>
       <c r="J19">
-        <v>0.0003214416436277801</v>
+        <v>0.0001742211296645567</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N19">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O19">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P19">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q19">
-        <v>0.8967589038209998</v>
+        <v>0.3576441565175555</v>
       </c>
       <c r="R19">
-        <v>8.070830134388999</v>
+        <v>3.218797408658</v>
       </c>
       <c r="S19">
-        <v>9.506688829163029E-05</v>
+        <v>4.521754066291708E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001213094497149767</v>
+        <v>6.106265449574928E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.8426455</v>
+        <v>34.368067</v>
       </c>
       <c r="H20">
-        <v>67.68529100000001</v>
+        <v>68.73613399999999</v>
       </c>
       <c r="I20">
-        <v>0.5432809065253976</v>
+        <v>0.5383924281673362</v>
       </c>
       <c r="J20">
-        <v>0.4494199910860052</v>
+        <v>0.4575784996467213</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N20">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O20">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P20">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q20">
-        <v>129.9820544555535</v>
+        <v>283.769293299724</v>
       </c>
       <c r="R20">
-        <v>519.928217822214</v>
+        <v>1135.077173198896</v>
       </c>
       <c r="S20">
-        <v>0.01377961166394983</v>
+        <v>0.0358774198454929</v>
       </c>
       <c r="T20">
-        <v>0.007814835022553255</v>
+        <v>0.02153314311320806</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.8426455</v>
+        <v>34.368067</v>
       </c>
       <c r="H21">
-        <v>67.68529100000001</v>
+        <v>68.73613399999999</v>
       </c>
       <c r="I21">
-        <v>0.5432809065253976</v>
+        <v>0.5383924281673362</v>
       </c>
       <c r="J21">
-        <v>0.4494199910860052</v>
+        <v>0.4575784996467213</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P21">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q21">
-        <v>699.533032678862</v>
+        <v>710.3935812529879</v>
       </c>
       <c r="R21">
-        <v>4197.198196073173</v>
+        <v>4262.361487517927</v>
       </c>
       <c r="S21">
-        <v>0.07415864887499479</v>
+        <v>0.08981623231248155</v>
       </c>
       <c r="T21">
-        <v>0.06308642296172863</v>
+        <v>0.08085973542423378</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.8426455</v>
+        <v>34.368067</v>
       </c>
       <c r="H22">
-        <v>67.68529100000001</v>
+        <v>68.73613399999999</v>
       </c>
       <c r="I22">
-        <v>0.5432809065253976</v>
+        <v>0.5383924281673362</v>
       </c>
       <c r="J22">
-        <v>0.4494199910860052</v>
+        <v>0.4575784996467213</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N22">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O22">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P22">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q22">
-        <v>1935.126914357442</v>
+        <v>1111.826809280681</v>
       </c>
       <c r="R22">
-        <v>11610.76148614465</v>
+        <v>6670.960855684088</v>
       </c>
       <c r="S22">
-        <v>0.2051459912062021</v>
+        <v>0.1405700975189924</v>
       </c>
       <c r="T22">
-        <v>0.1745167551791973</v>
+        <v>0.1265524126462929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.8426455</v>
+        <v>34.368067</v>
       </c>
       <c r="H23">
-        <v>67.68529100000001</v>
+        <v>68.73613399999999</v>
       </c>
       <c r="I23">
-        <v>0.5432809065253976</v>
+        <v>0.5383924281673362</v>
       </c>
       <c r="J23">
-        <v>0.4494199910860052</v>
+        <v>0.4575784996467213</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N23">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O23">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P23">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q23">
-        <v>294.0391010937873</v>
+        <v>431.159120025847</v>
       </c>
       <c r="R23">
-        <v>1176.156404375149</v>
+        <v>1724.636480103388</v>
       </c>
       <c r="S23">
-        <v>0.03117156936825261</v>
+        <v>0.05451215876638906</v>
       </c>
       <c r="T23">
-        <v>0.01767834086676593</v>
+        <v>0.03271746187941203</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.8426455</v>
+        <v>34.368067</v>
       </c>
       <c r="H24">
-        <v>67.68529100000001</v>
+        <v>68.73613399999999</v>
       </c>
       <c r="I24">
-        <v>0.5432809065253976</v>
+        <v>0.5383924281673362</v>
       </c>
       <c r="J24">
-        <v>0.4494199910860052</v>
+        <v>0.4575784996467213</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N24">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O24">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P24">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q24">
-        <v>185.3574328622653</v>
+        <v>312.2310819695284</v>
       </c>
       <c r="R24">
-        <v>1112.144597173592</v>
+        <v>1873.38649181717</v>
       </c>
       <c r="S24">
-        <v>0.01965004672812003</v>
+        <v>0.03947589073635745</v>
       </c>
       <c r="T24">
-        <v>0.01671620475714876</v>
+        <v>0.03553934515391868</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.8426455</v>
+        <v>34.368067</v>
       </c>
       <c r="H25">
-        <v>67.68529100000001</v>
+        <v>68.73613399999999</v>
       </c>
       <c r="I25">
-        <v>0.5432809065253976</v>
+        <v>0.5383924281673362</v>
       </c>
       <c r="J25">
-        <v>0.4494199910860052</v>
+        <v>0.4575784996467213</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N25">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O25">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P25">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q25">
-        <v>1880.689947386918</v>
+        <v>1408.987619886955</v>
       </c>
       <c r="R25">
-        <v>11284.13968432151</v>
+        <v>8453.925719321731</v>
       </c>
       <c r="S25">
-        <v>0.1993750386838784</v>
+        <v>0.1781406289876228</v>
       </c>
       <c r="T25">
-        <v>0.1696074322986112</v>
+        <v>0.1603764014296559</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>3.410876</v>
+        <v>0.01841133333333333</v>
       </c>
       <c r="H26">
-        <v>10.232628</v>
+        <v>0.055234</v>
       </c>
       <c r="I26">
-        <v>0.05475528812680209</v>
+        <v>0.0002884224608597146</v>
       </c>
       <c r="J26">
-        <v>0.06794308654957851</v>
+        <v>0.0003676943898166721</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N26">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O26">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P26">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q26">
-        <v>13.100414090652</v>
+        <v>0.1520181815493333</v>
       </c>
       <c r="R26">
-        <v>78.60248454391201</v>
+        <v>0.912109089296</v>
       </c>
       <c r="S26">
-        <v>0.001388796473191983</v>
+        <v>1.921990945592949E-05</v>
       </c>
       <c r="T26">
-        <v>0.001181442799251008</v>
+        <v>1.730329533393504E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>3.410876</v>
+        <v>0.01841133333333333</v>
       </c>
       <c r="H27">
-        <v>10.232628</v>
+        <v>0.055234</v>
       </c>
       <c r="I27">
-        <v>0.05475528812680209</v>
+        <v>0.0002884224608597146</v>
       </c>
       <c r="J27">
-        <v>0.06794308654957851</v>
+        <v>0.0003676943898166721</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P27">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q27">
-        <v>70.50336630366401</v>
+        <v>0.3805652794586666</v>
       </c>
       <c r="R27">
-        <v>634.5302967329761</v>
+        <v>3.425087515128</v>
       </c>
       <c r="S27">
-        <v>0.007474177975836633</v>
+        <v>4.811549604605933E-05</v>
       </c>
       <c r="T27">
-        <v>0.009537373460033249</v>
+        <v>6.497611032971579E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>3.410876</v>
+        <v>0.01841133333333333</v>
       </c>
       <c r="H28">
-        <v>10.232628</v>
+        <v>0.055234</v>
       </c>
       <c r="I28">
-        <v>0.05475528812680209</v>
+        <v>0.0002884224608597146</v>
       </c>
       <c r="J28">
-        <v>0.06794308654957851</v>
+        <v>0.0003676943898166721</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N28">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O28">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P28">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q28">
-        <v>195.0343376417147</v>
+        <v>0.5956172628097778</v>
       </c>
       <c r="R28">
-        <v>1755.309038775432</v>
+        <v>5.360555365288</v>
       </c>
       <c r="S28">
-        <v>0.02067591134095724</v>
+        <v>7.530487304163318E-05</v>
       </c>
       <c r="T28">
-        <v>0.02638335462745961</v>
+        <v>0.0001016931787304963</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>3.410876</v>
+        <v>0.01841133333333333</v>
       </c>
       <c r="H29">
-        <v>10.232628</v>
+        <v>0.055234</v>
       </c>
       <c r="I29">
-        <v>0.05475528812680209</v>
+        <v>0.0002884224608597146</v>
       </c>
       <c r="J29">
-        <v>0.06794308654957851</v>
+        <v>0.0003676943898166721</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N29">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O29">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P29">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q29">
-        <v>29.635121550482</v>
+        <v>0.2309764549313333</v>
       </c>
       <c r="R29">
-        <v>177.810729302892</v>
+        <v>1.385858729588</v>
       </c>
       <c r="S29">
-        <v>0.003141668042485272</v>
+        <v>2.920273420578405E-05</v>
       </c>
       <c r="T29">
-        <v>0.002672602615342428</v>
+        <v>2.629063033203823E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>3.410876</v>
+        <v>0.01841133333333333</v>
       </c>
       <c r="H30">
-        <v>10.232628</v>
+        <v>0.055234</v>
       </c>
       <c r="I30">
-        <v>0.05475528812680209</v>
+        <v>0.0002884224608597146</v>
       </c>
       <c r="J30">
-        <v>0.06794308654957851</v>
+        <v>0.0003676943898166721</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N30">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O30">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P30">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q30">
-        <v>18.68149519137067</v>
+        <v>0.1672654597411111</v>
       </c>
       <c r="R30">
-        <v>168.133456722336</v>
+        <v>1.50538913767</v>
       </c>
       <c r="S30">
-        <v>0.001980456072319262</v>
+        <v>2.11476479889696E-05</v>
       </c>
       <c r="T30">
-        <v>0.002527147365765681</v>
+        <v>2.855819895590206E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>3.410876</v>
+        <v>0.01841133333333333</v>
       </c>
       <c r="H31">
-        <v>10.232628</v>
+        <v>0.055234</v>
       </c>
       <c r="I31">
-        <v>0.05475528812680209</v>
+        <v>0.0002884224608597146</v>
       </c>
       <c r="J31">
-        <v>0.06794308654957851</v>
+        <v>0.0003676943898166721</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N31">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O31">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P31">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q31">
-        <v>189.5478355846413</v>
+        <v>0.7548094203924443</v>
       </c>
       <c r="R31">
-        <v>1705.930520261772</v>
+        <v>6.793284783531999</v>
       </c>
       <c r="S31">
-        <v>0.0200942782220117</v>
+        <v>9.543180012133898E-05</v>
       </c>
       <c r="T31">
-        <v>0.02564116568172653</v>
+        <v>0.0001288729761345847</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.09407333333333334</v>
+        <v>0.02218766666666667</v>
       </c>
       <c r="H32">
-        <v>0.28222</v>
+        <v>0.06656300000000001</v>
       </c>
       <c r="I32">
-        <v>0.001510172891572535</v>
+        <v>0.0003475805529602272</v>
       </c>
       <c r="J32">
-        <v>0.001873897681614346</v>
+        <v>0.0004431118816194218</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N32">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O32">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P32">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q32">
-        <v>0.36131469498</v>
+        <v>0.1831985048786667</v>
       </c>
       <c r="R32">
-        <v>2.16788816988</v>
+        <v>1.099191029272</v>
       </c>
       <c r="S32">
-        <v>3.830356587420567E-05</v>
+        <v>2.316208916817603E-05</v>
       </c>
       <c r="T32">
-        <v>3.258466806421767E-05</v>
+        <v>2.08523599107926E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.09407333333333334</v>
+        <v>0.02218766666666667</v>
       </c>
       <c r="H33">
-        <v>0.28222</v>
+        <v>0.06656300000000001</v>
       </c>
       <c r="I33">
-        <v>0.001510172891572535</v>
+        <v>0.0003475805529602272</v>
       </c>
       <c r="J33">
-        <v>0.001873897681614346</v>
+        <v>0.0004431118816194218</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P33">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q33">
-        <v>1.944511228026667</v>
+        <v>0.4586227087773334</v>
       </c>
       <c r="R33">
-        <v>17.50060105224</v>
+        <v>4.127604378996001</v>
       </c>
       <c r="S33">
-        <v>0.0002061408377535677</v>
+        <v>5.798442559499307E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002630445998711752</v>
+        <v>7.830330651187445E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.09407333333333334</v>
+        <v>0.02218766666666667</v>
       </c>
       <c r="H34">
-        <v>0.28222</v>
+        <v>0.06656300000000001</v>
       </c>
       <c r="I34">
-        <v>0.001510172891572535</v>
+        <v>0.0003475805529602272</v>
       </c>
       <c r="J34">
-        <v>0.001873897681614346</v>
+        <v>0.0004431118816194218</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N34">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O34">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P34">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q34">
-        <v>5.379125554964444</v>
+        <v>0.7177838263462224</v>
       </c>
       <c r="R34">
-        <v>48.41212999468</v>
+        <v>6.460054437116002</v>
       </c>
       <c r="S34">
-        <v>0.0005702499591155814</v>
+        <v>9.07505931902493E-05</v>
       </c>
       <c r="T34">
-        <v>0.0007276635428319733</v>
+        <v>0.000122551382406453</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.09407333333333334</v>
+        <v>0.02218766666666667</v>
       </c>
       <c r="H35">
-        <v>0.28222</v>
+        <v>0.06656300000000001</v>
       </c>
       <c r="I35">
-        <v>0.001510172891572535</v>
+        <v>0.0003475805529602272</v>
       </c>
       <c r="J35">
-        <v>0.001873897681614346</v>
+        <v>0.0004431118816194218</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N35">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O35">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P35">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q35">
-        <v>0.8173485837633334</v>
+        <v>0.2783518443276667</v>
       </c>
       <c r="R35">
-        <v>4.904091502580001</v>
+        <v>1.670111065966</v>
       </c>
       <c r="S35">
-        <v>8.664846947921818E-05</v>
+        <v>3.519248283556512E-05</v>
       </c>
       <c r="T35">
-        <v>7.371145614811171E-05</v>
+        <v>3.168307974782672E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.09407333333333334</v>
+        <v>0.02218766666666667</v>
       </c>
       <c r="H36">
-        <v>0.28222</v>
+        <v>0.06656300000000001</v>
       </c>
       <c r="I36">
-        <v>0.001510172891572535</v>
+        <v>0.0003475805529602272</v>
       </c>
       <c r="J36">
-        <v>0.001873897681614346</v>
+        <v>0.0004431118816194218</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N36">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O36">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P36">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q36">
-        <v>0.5152431587377777</v>
+        <v>0.201573139673889</v>
       </c>
       <c r="R36">
-        <v>4.63718842864</v>
+        <v>1.814158257065001</v>
       </c>
       <c r="S36">
-        <v>5.46217758263021E-05</v>
+        <v>2.548522455534243E-05</v>
       </c>
       <c r="T36">
-        <v>6.969974180302367E-05</v>
+        <v>3.441574749432794E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.09407333333333334</v>
+        <v>0.02218766666666667</v>
       </c>
       <c r="H37">
-        <v>0.28222</v>
+        <v>0.06656300000000001</v>
       </c>
       <c r="I37">
-        <v>0.001510172891572535</v>
+        <v>0.0003475805529602272</v>
       </c>
       <c r="J37">
-        <v>0.001873897681614346</v>
+        <v>0.0004431118816194218</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N37">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O37">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P37">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q37">
-        <v>5.227805619308889</v>
+        <v>0.9096277555415556</v>
       </c>
       <c r="R37">
-        <v>47.05025057378</v>
+        <v>8.186649799874001</v>
       </c>
       <c r="S37">
-        <v>0.0005542082835236601</v>
+        <v>0.0001150057376159012</v>
       </c>
       <c r="T37">
-        <v>0.0007071936728958447</v>
+        <v>0.0001553060055481472</v>
       </c>
     </row>
   </sheetData>
